--- a/root_node/multidim_env_rounds/datos_verificacion_sigmoid_1como2_no_exact_verif_bounds_.xlsx
+++ b/root_node/multidim_env_rounds/datos_verificacion_sigmoid_1como2_no_exact_verif_bounds_.xlsx
@@ -1,56 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\197780_2_8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7270B594-19AB-4AD5-A4F5-44B6D35C3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="8">
   <si>
     <t>verif_bounds_prop</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>totalnodelimit</t>
+    <t>Si</t>
   </si>
   <si>
-    <t>verif_bounds</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>totalnodelimit</t>
   </si>
   <si>
     <t>no_lptocut</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>optimal</t>
   </si>
   <si>
-    <t>optimal</t>
+    <t>verif_bounds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,14 +81,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -382,16 +368,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1">
         <v>2</v>
       </c>
@@ -405,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <v>3.6191940307617188E-4</v>
+        <v>0.0003619194030761719</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -414,19 +398,19 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>107.30950587659621</v>
+        <v>107.3095058765962</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L1">
-        <v>3.366470336914062E-4</v>
+        <v>0.0003366470336914062</v>
       </c>
       <c r="M1">
         <v>1</v>
@@ -435,16 +419,16 @@
         <v>0</v>
       </c>
       <c r="O1">
-        <v>204.31602228930649</v>
+        <v>204.3160222893065</v>
       </c>
       <c r="P1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>2</v>
       </c>
@@ -458,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -467,19 +451,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -488,16 +472,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.671646118164062E-4</v>
+        <v>0.0003671646118164062</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -520,19 +504,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.18368852775912689</v>
+        <v>0.1836885277591269</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>3.7598609924316412E-4</v>
+        <v>0.0003759860992431641</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -541,16 +525,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.10535668618637881</v>
+        <v>0.1053566861863788</v>
       </c>
       <c r="P3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
@@ -564,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.7240982055664063E-4</v>
+        <v>0.0003724098205566406</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -573,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>544.03664952180497</v>
+        <v>544.036649521805</v>
       </c>
       <c r="I4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>3.7813186645507813E-4</v>
+        <v>0.0003781318664550781</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -594,16 +578,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.523137290334269</v>
+        <v>16.52313729033427</v>
       </c>
       <c r="P4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
@@ -617,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -626,19 +610,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>3.604888916015625E-4</v>
+        <v>0.0003604888916015625</v>
       </c>
       <c r="M5">
         <v>345</v>
@@ -650,13 +634,13 @@
         <v>2916.303456167348</v>
       </c>
       <c r="P5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>3</v>
       </c>
@@ -670,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.0994415283203121E-6</v>
+        <v>3.099441528320312E-06</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -682,16 +666,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>3.0994415283203121E-6</v>
+        <v>3.099441528320312E-06</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -703,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>3</v>
       </c>
@@ -723,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.0994415283203121E-6</v>
+        <v>3.099441528320312E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -735,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>3.0994415283203121E-6</v>
+        <v>3.099441528320312E-06</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -756,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>3</v>
       </c>
@@ -776,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.0994415283203121E-6</v>
+        <v>3.099441528320312E-06</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -788,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>3.0994415283203121E-6</v>
+        <v>3.099441528320312E-06</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -809,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>4</v>
       </c>
@@ -829,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.337860107421875E-6</v>
+        <v>3.337860107421875E-06</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -841,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>3.337860107421875E-6</v>
+        <v>3.337860107421875E-06</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -862,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>4</v>
       </c>
@@ -882,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.6392936706542969E-4</v>
+        <v>0.0002639293670654297</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -894,16 +878,16 @@
         <v>0.1948045620331752</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>2.63214111328125E-4</v>
+        <v>0.000263214111328125</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -915,13 +899,13 @@
         <v>0.1288161042105522</v>
       </c>
       <c r="P10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>4</v>
       </c>
@@ -935,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.3749809265136719E-4</v>
+        <v>0.0004374980926513672</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -944,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.190844117218569E-3</v>
+        <v>0.001190844117218569</v>
       </c>
       <c r="I11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>4.3702125549316412E-4</v>
+        <v>0.0004370212554931641</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -965,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.062536906397907E-3</v>
+        <v>0.001062536906397907</v>
       </c>
       <c r="P11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>4</v>
       </c>
@@ -988,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.9529800415039063E-4</v>
+        <v>0.0003952980041503906</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -997,37 +981,196 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.6030426027667602E-4</v>
+        <v>0.000260304260276676</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>0.0004045963287353516</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.000260281346176894</v>
+      </c>
+      <c r="P12" t="s">
         <v>3</v>
       </c>
-      <c r="L12">
-        <v>4.0459632873535162E-4</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>2.6028134617689402E-4</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
       <c r="Q12" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>107.3095058765962</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>204.3160241132089</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.1836885277591269</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.1053566861863788</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>